--- a/BackLog/Week1-tasks.xlsx
+++ b/BackLog/Week1-tasks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SenMi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\github\BikeShareApp\BackLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47065FC-230E-43F8-9C04-A647E54F25B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Goals</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Setting up software</t>
   </si>
@@ -54,12 +52,18 @@
   </si>
   <si>
     <t>Learning front end framework- React</t>
+  </si>
+  <si>
+    <t>Group2-Goals</t>
+  </si>
+  <si>
+    <t>First Sprint Backlog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,11 +374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,10 +390,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,10 +456,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
